--- a/InfoProyectoRedes2_Randolph.xlsx
+++ b/InfoProyectoRedes2_Randolph.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CastellanosU\OneDrive\Documentos\Clases\Redes2\Laboratorio\Proyecto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rm\Documents\GitHub\REDES2_2S2020_P1_GRUPO5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED83803E-5F5A-4D7F-ADAF-691E76A48C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>No.</t>
   </si>
@@ -39,13 +40,912 @@
   </si>
   <si>
     <t>Explicación del Funcionamiento</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Configuraciones Staticas</t>
+  </si>
+  <si>
+    <t>Imagen del dispositivo</t>
+  </si>
+  <si>
+    <t>Fixed interfaces: 2 x 2.5G SFP(compatible with GE), 4 x GE RJ45, 1 x USB2.0, 1 x DI, 1 x DO, aplicado para trabajar como capa 3.</t>
+  </si>
+  <si>
+    <t>Router 9</t>
+  </si>
+  <si>
+    <t>Router 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Router 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recibe todas las direcciones de Red entrantes por el puerto 40,0,0,1 y 60,0,0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recibe todas las direcciones de Red entrantes por el puerto 70,0,0,2 y 60,0,0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recibe todas las direcciones de Red entrantes por el puerto 50,0,0,2  y 70,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routers aplicados para la red Autonoma 300 que es la de Orange, por lo tanto cada router es comunicado por el puerto SFP para  poder aplicar fibra optica  y disminuir la latencia. Asi mismo se conectan  switches para poder configurar departamentos por medio de Vlan </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>router 9, router 10, router 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:    Huawei AR550 -4GE </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Switch15, Switch16, Switch17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Juniper Networks EX2300-C-12T </t>
+    </r>
+  </si>
+  <si>
+    <t>EX 2300-C Compact Fanless 12-port 10/100/1000BASE-T Ethernet Switch with 2 x 1/10GbE SFP/SFP+ uplink ports</t>
+  </si>
+  <si>
+    <t>El Switch debido a que solo posee 12 puertos , puede facilmente  crearse Vlans para dividir 3 departamentos por switch, por lo tanto cada Vlan puede tener 4  purtos  ya que solo se necesitan 2 puertos pars los host</t>
+  </si>
+  <si>
+    <t>Switch15</t>
+  </si>
+  <si>
+    <t>Switch16</t>
+  </si>
+  <si>
+    <t>Switch17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlan1 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 192.168.12.8 , 192.168.12.2 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlan2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 192.168.12.16 , 192.168.12.15 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlan3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 192.168.12.23, 192.168.12.24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlan1 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 192.168.13.8 , 192.168.13.2 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vlan2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 192.168.13.16 , 192.168.13.15 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vlan3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 192.168.13.23, 192.168.13.24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vlan1 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">192.168.14.8 , 192.168.14.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Vlan2 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">192.168.14.16 , 192.168.14.15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Vlan3 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 192.168.14.23, 192.168.14.24</t>
+    </r>
+  </si>
+  <si>
+    <t>Los host utilizados son Computadoras de Escritorio  de la marca Dell de la serie Optiplex</t>
+  </si>
+  <si>
+    <t>IP: 192.168.12.8
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.12.2
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.12.16
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.12.15
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.12.23
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.12.24
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.13.8
+Mask: 255,255,255,0
+Gateway: 192,168,13,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.13.2
+Mask: 255,255,255,0
+Gateway: 192,168,13,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.13.16
+Mask: 255,255,255,0
+Gateway: 192,168,13,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.13.15
+Mask: 255,255,255,0
+Gateway: 192,168,13,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.13.23
+Mask: 255,255,255,0
+Gateway: 192,168,12,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.14.24
+Mask: 255,255,255,0
+Gateway: 192,168,14,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.14.8
+Mask: 255,255,255,0
+Gateway: 192,168,14,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.14.2
+Mask: 255,255,255,0
+Gateway: 192,168,14,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.14.15
+Mask: 255,255,255,0
+Gateway: 192,168,14,1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.14.23
+Mask: 255,255,255,0
+Gateway: 192,168,14,1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host  PC-24 -&gt; 41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: computadoreas de Escritorio Dell Optiplex</t>
+    </r>
+  </si>
+  <si>
+    <t>Telefonica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Capacidad de switching: 	84 Tbit/s
+Rendimiento de reenvío: 	14 464 Mpps
+MPU: 		2
+SFU: 	 	8
+Ranuras: 	8
+Tipos de puertos: 	400GE, 100GE, 40GE y 10GE
+Consumo de energía típico :0,4 W/G</t>
+  </si>
+  <si>
+    <t>Configuraciones BGP y RIPV2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:    Huawei Serie NetEngine 9000 -8 , Capa de Core </t>
+    </r>
+  </si>
+  <si>
+    <t>La Finalidad de este router es funcionar en la capa core del modelo de 3 capas que Telefonica solicito en su sistema autonomo, cabe mencinar que tambien Tambien se comunicac con otros sistemas autonomos. Se utilizo el router con version NetEngine 9000 -8, porque ya que existe otro de mayores capacidades, por lo tanto las pacidades son suficientes par alos recuros aplicados.   El protocolo RIPV2 es aplicado con las redes  21.1.1.0/8  y 22.1.1.0/8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Capacidad de switching :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24 Gbit/s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Capacidad de reenvío:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17,85 Mpps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interfaces:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GE/FE, E1, RS232, RS485, FXO, FSO, E&amp;M y X.21/V.35/X.24, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumo de energía:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 55 W
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ranuras:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 MPU; 2 FIC </t>
+    </r>
+  </si>
+  <si>
+    <t>Configuraciones RipV2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router0,Router1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  Huawei NetEngine05E-S2, Capa de Distribucion</t>
+    </r>
+  </si>
+  <si>
+    <t>Este Router Es Utilizado con la finalidad de funcionar en la capa de Distribucion, ya que se adapta a las necesidades  de telefonica  se opto por una serie  NetEngine05E-S2, que esta por debajo de la serie NetEngine08E-S6/S6E/S9, los cuales son mas potentes pero con la s2 es suficiente.</t>
+  </si>
+  <si>
+    <t>Router0</t>
+  </si>
+  <si>
+    <t>Router1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Router Rip
+&gt; version 2
+&gt; ip address 21,1,1,0
+&gt; ip address 25,1,1,0
+&gt; ip address 26,1,1,0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Router Rip
+&gt; version 2
+&gt; ip address 22,1,1,0
+&gt; ip address 28,1,1,0
+&gt; ip address 230,1,1,0
+</t>
+  </si>
+  <si>
+    <t>Realiza Ruteo Rip Vesion 2 con 3 canales serial de Red para una mejor consistencia en la alta disponibilidad</t>
+  </si>
+  <si>
+    <t>Configuracion RipV2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router2, Router3, Router7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:    Huawei  AR3260</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Velocidad de WAN con servicios: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hasta 2 Gbps (SRU40), 4 Gbps (SRU80), 2 Gbps (SRU100E), 9 Gbps (SRU200), 11 Gbps (SRU400).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Puertos WAN fijos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SRU40: 3 x GE (2 x Combo)
+SRU80: 3 x GE (2 x Combo)
+SRU100E: 4 x GE Combo + 2 x GE SFP
+SRU200: 4 x GE Combo + 2 x 10GE SFP+
+SRU400: 4 x GE Combo + 2 x 10GE SFP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fiabilidad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Redundancia 1:1 de la tarjeta de control principal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuente de alimentación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  	CA: 100 V a 240 V, 50 Hz/60 Hz
+CC: −48 V a −60 V
+Suministro eléctrico redundante: CA y CC internos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Altura del rack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 3 RU</t>
+    </r>
+  </si>
+  <si>
+    <t>Este Router Es Utilizado con la finalidad de funcionar en la Capa de Acceso. Por lo tanto los recursos que provee este rauter son inferiores a los de la capa  de distribucion, pero posee mas puertos y es debido a que se necesitan conectar mas switches que brinden informacion de datos a los Host</t>
+  </si>
+  <si>
+    <t>Router2</t>
+  </si>
+  <si>
+    <t>Router3</t>
+  </si>
+  <si>
+    <t>Router7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Router Rip
+&gt; version 2
+&gt; ip address 192.168.7.1
+&gt; ip address 25.1.1.0
+&gt; ip address 27.1.1.0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Router Rip
+&gt; version 2
+&gt; ip address 192.168.7.1
+&gt; ip address 27.1.1.0
+&gt; ip address 26.1.1.0
+&gt; ip address 28.1.1.0
+&gt; ip address 29.1.1.0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Router Rip
+&gt; version 2
+&gt; ip address 192.168.9.0
+&gt; ip address 29.1.1.0
+&gt; ip address 30.1.1.0
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Switch7, Switch8, Switch10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Juniper Networks EX2300-C-12T </t>
+    </r>
+  </si>
+  <si>
+    <t>Es Switch pasa a formar parte de la capa de acces ya que debe poder comunicar las computadoras  o host</t>
+  </si>
+  <si>
+    <t>Configuraciones VLAN</t>
+  </si>
+  <si>
+    <t>Switch7</t>
+  </si>
+  <si>
+    <t>Switch8</t>
+  </si>
+  <si>
+    <t>Switch10</t>
+  </si>
+  <si>
+    <t>Comunica Router 2 con : 192.168.7.1
+Comunica PC-14 con: 192.168.7.2
+Comunica PC-15 con: 192.168.7.3
+Comunica PC-16 con: 192.168.7.4
+Comunica PC-17 con: 192.168.7.5</t>
+  </si>
+  <si>
+    <t>Comunica Router 3 con : 192.168.8.1
+Comunica PC-18 con: 192.168.8.2
+Comunica PC-19 con: 192.168.8.3
+Comunica PC-20 con: 192.168.8.4</t>
+  </si>
+  <si>
+    <t>Comunica Router 4 con : 192.168.9.1
+Comunica PC-18 con: 192.168.9.2
+Comunica PC-19 con: 192.168.9.3
+Comunica PC-20 con: 192.168.9.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host  PC-14 -&gt; 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: computadoreas de Escritorio Dell Optiplex</t>
+    </r>
+  </si>
+  <si>
+    <t>IP: 192.168.7.2
+Mask: 255,255,255,0
+Gateway: 192.168.7.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.7.3
+Mask: 255,255,255,0
+Gateway: 192.168.7.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.7.4
+Mask: 255,255,255,0
+Gateway: 192.168.7.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.7.5
+Mask: 255,255,255,0
+Gateway: 192.168.7.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.8.2
+Mask: 255,255,255,0
+Gateway: 192.168.8.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.8.3
+Mask: 255,255,255,0
+Gateway: 192.168.8.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.8.4
+Mask: 255,255,255,0
+Gateway: 192.168.8.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.9.2
+Mask: 255,255,255,0
+Gateway: 192.168.9.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.9.3
+Mask: 255,255,255,0
+Gateway: 192.168.9.1</t>
+  </si>
+  <si>
+    <t>IP: 192.168.9.4
+Mask: 255,255,255,0
+Gateway: 192.168.9.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +961,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,13 +1009,58 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -91,7 +1070,49 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -104,157 +1125,35 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,25 +1161,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,6 +1299,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>619124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1544187</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409E910D-FEAA-4B7E-B45A-87277EC80D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="1762124"/>
+          <a:ext cx="1163187" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2058B2-127D-48CF-B528-A47ACA529894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="5999742"/>
+          <a:ext cx="1962150" cy="531749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1764502</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3A9442-7606-4F6B-8C44-BEB8329FAC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="11428389"/>
+          <a:ext cx="1526377" cy="1335111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>245964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2182540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6EC687-23D9-4A9B-BB58-AEAD643162E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125076" y="20296089"/>
+          <a:ext cx="1228724" cy="1936576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1657351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2019301</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE42BB3D-DCC3-4144-AE44-79F07CB1BE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763126" y="24183976"/>
+          <a:ext cx="1962150" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>189544</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2781300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1914956</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1029004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BB475A-2B2C-4AE9-888B-517AE5763E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9895519" y="29260800"/>
+          <a:ext cx="1725412" cy="1219504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>188849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED58AF3-0B42-452E-8FF6-BAB3B5194C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782175" y="35394900"/>
+          <a:ext cx="1962150" cy="531749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1697827</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>496911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8491EFAA-1974-4CA2-8279-09A86D1268DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="42519600"/>
+          <a:ext cx="1526377" cy="1335111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,90 +1920,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11">
+        <v>30</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>18</v>
+      </c>
+      <c r="B25" s="11">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>19</v>
+      </c>
+      <c r="B26" s="11">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>21</v>
+      </c>
+      <c r="B28" s="11">
+        <v>38</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>22</v>
+      </c>
+      <c r="B29" s="11">
+        <v>39</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11">
+        <v>40</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>24</v>
+      </c>
+      <c r="B31" s="11">
+        <v>41</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="37"/>
+    </row>
+    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>1</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="1:7" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>3</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>4</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="37"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>7</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>8</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>9</v>
+      </c>
+      <c r="B48" s="7">
+        <v>14</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>10</v>
+      </c>
+      <c r="B49" s="7">
+        <v>15</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>11</v>
+      </c>
+      <c r="B50" s="7">
+        <v>16</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>12</v>
+      </c>
+      <c r="B51" s="7">
+        <v>17</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>13</v>
+      </c>
+      <c r="B52" s="7">
+        <v>18</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>14</v>
+      </c>
+      <c r="B53" s="7">
+        <v>19</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>15</v>
+      </c>
+      <c r="B54" s="7">
+        <v>20</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>16</v>
+      </c>
+      <c r="B55" s="7">
+        <v>21</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="27"/>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>17</v>
+      </c>
+      <c r="B56" s="7">
+        <v>22</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="27"/>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>18</v>
+      </c>
+      <c r="B57" s="7">
+        <v>23</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="41"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="G47:G57"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G13:G31"/>
+    <mergeCell ref="G9:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>